--- a/Master Question List with Q Tags.xlsx
+++ b/Master Question List with Q Tags.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16035" windowHeight="10650" tabRatio="711" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16035" windowHeight="7695" tabRatio="711" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Questions" sheetId="1" r:id="rId1"/>
@@ -21,6 +21,7 @@
     <sheet name="Carne" sheetId="6" r:id="rId7"/>
     <sheet name="KPMG Alpha FMC PWC" sheetId="7" r:id="rId8"/>
     <sheet name="Kirko PAG" sheetId="8" r:id="rId9"/>
+    <sheet name="AMP" sheetId="10" r:id="rId10"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -32,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="846" uniqueCount="300">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="937" uniqueCount="313">
   <si>
     <t>INTERNAL ONLY</t>
   </si>
@@ -1226,6 +1227,45 @@
   </si>
   <si>
     <t>X</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Behind the curve on technology particularly on Portal. Need investor Portal,  (currently trying to rollout FSO to investors but having difficulty with CSSF approval) </t>
+  </si>
+  <si>
+    <t>No comments</t>
+  </si>
+  <si>
+    <t>Yes</t>
+  </si>
+  <si>
+    <t>As the funds grow aggrgation of data will be key, AMP looking for us to interface with Salesforce and Anaplan on their end</t>
+  </si>
+  <si>
+    <t>Platform fee when GIF III launches</t>
+  </si>
+  <si>
+    <t>Infrastructure equity and debt will be key for AMP going forward</t>
+  </si>
+  <si>
+    <t>Investors asking for improved carry reporting, with secnario analysis</t>
+  </si>
+  <si>
+    <t>Investors who traditionally invested in the hedge space now coming into PE and want similar reporting frequency/quality</t>
+  </si>
+  <si>
+    <t>comfortable with direction</t>
+  </si>
+  <si>
+    <t>Not currently used but want Investor reporting via FSO.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Need to build data extract Investran for Anaplan and Salesforce </t>
+  </si>
+  <si>
+    <t>Need to build data extract Investran for Anaplan and Salesforce</t>
+  </si>
+  <si>
+    <t>Doesn't feel that MUFG is that well known of a brand in PE space.</t>
   </si>
 </sst>
 </file>
@@ -1429,7 +1469,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="66">
+  <cellXfs count="67">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1619,6 +1659,9 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1905,7 +1948,7 @@
   </sheetPr>
   <dimension ref="A1:K33"/>
   <sheetViews>
-    <sheetView topLeftCell="A6" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+    <sheetView zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
       <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
@@ -2399,20 +2442,317 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G28"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F1" sqref="F1:G19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="30.85546875" style="26" customWidth="1"/>
+    <col min="2" max="2" width="33.28515625" style="15" customWidth="1"/>
+    <col min="6" max="7" width="48" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1" s="43"/>
+      <c r="B1" s="15" t="s">
+        <v>269</v>
+      </c>
+      <c r="F1" s="43"/>
+      <c r="G1" s="15" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" s="43"/>
+      <c r="B2" s="5" t="s">
+        <v>271</v>
+      </c>
+      <c r="F2" s="27" t="s">
+        <v>58</v>
+      </c>
+      <c r="G2" s="5" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="75" x14ac:dyDescent="0.25">
+      <c r="A3" s="27" t="s">
+        <v>58</v>
+      </c>
+      <c r="F3" s="26" t="s">
+        <v>14</v>
+      </c>
+      <c r="G3" s="15" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="105" x14ac:dyDescent="0.25">
+      <c r="A4" s="26" t="s">
+        <v>14</v>
+      </c>
+      <c r="B4" s="15" t="s">
+        <v>300</v>
+      </c>
+      <c r="F4" s="26" t="s">
+        <v>16</v>
+      </c>
+      <c r="G4" s="15" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="75" x14ac:dyDescent="0.25">
+      <c r="A5" s="26" t="s">
+        <v>16</v>
+      </c>
+      <c r="B5" s="15" t="s">
+        <v>301</v>
+      </c>
+      <c r="F5" s="26" t="s">
+        <v>18</v>
+      </c>
+      <c r="G5" s="15" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="75" x14ac:dyDescent="0.25">
+      <c r="A6" s="26" t="s">
+        <v>18</v>
+      </c>
+      <c r="B6" s="15" t="s">
+        <v>302</v>
+      </c>
+      <c r="F6" s="26" t="s">
+        <v>19</v>
+      </c>
+      <c r="G6" s="15" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="A7" s="26" t="s">
+        <v>19</v>
+      </c>
+      <c r="B7" s="15" t="s">
+        <v>303</v>
+      </c>
+      <c r="F7" s="26" t="s">
+        <v>22</v>
+      </c>
+      <c r="G7" s="15" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="90" x14ac:dyDescent="0.25">
+      <c r="A8" s="26" t="s">
+        <v>22</v>
+      </c>
+      <c r="B8" s="15" t="s">
+        <v>244</v>
+      </c>
+      <c r="F8" s="26" t="s">
+        <v>26</v>
+      </c>
+      <c r="G8" s="15" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="90" x14ac:dyDescent="0.25">
+      <c r="A9" s="26" t="s">
+        <v>26</v>
+      </c>
+      <c r="B9" s="15" t="s">
+        <v>304</v>
+      </c>
+      <c r="F9" s="26" t="s">
+        <v>30</v>
+      </c>
+      <c r="G9" s="15" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="F10" s="26" t="s">
+        <v>33</v>
+      </c>
+      <c r="G10" s="15" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" ht="72.75" x14ac:dyDescent="0.25">
+      <c r="A11" s="26" t="s">
+        <v>30</v>
+      </c>
+      <c r="B11" s="15" t="s">
+        <v>305</v>
+      </c>
+      <c r="F11" s="26" t="s">
+        <v>34</v>
+      </c>
+      <c r="G11" s="15" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" ht="75" x14ac:dyDescent="0.25">
+      <c r="A12" s="26" t="s">
+        <v>33</v>
+      </c>
+      <c r="B12" s="15" t="s">
+        <v>306</v>
+      </c>
+      <c r="F12" s="26" t="s">
+        <v>38</v>
+      </c>
+      <c r="G12" s="15" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" ht="75" x14ac:dyDescent="0.25">
+      <c r="A13" s="26" t="s">
+        <v>34</v>
+      </c>
+      <c r="B13" s="15" t="s">
+        <v>307</v>
+      </c>
+      <c r="F13" s="26" t="s">
+        <v>40</v>
+      </c>
+      <c r="G13" s="15" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="F14" s="26" t="s">
+        <v>42</v>
+      </c>
+      <c r="G14" s="15" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="F15" s="26" t="s">
+        <v>45</v>
+      </c>
+      <c r="G15" s="15" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" ht="90" x14ac:dyDescent="0.25">
+      <c r="F16" s="26" t="s">
+        <v>48</v>
+      </c>
+      <c r="G16" s="15" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" ht="90" x14ac:dyDescent="0.25">
+      <c r="A17" s="26" t="s">
+        <v>38</v>
+      </c>
+      <c r="B17" s="15" t="s">
+        <v>308</v>
+      </c>
+      <c r="F17" s="26" t="s">
+        <v>51</v>
+      </c>
+      <c r="G17" s="15" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="A18" s="26" t="s">
+        <v>40</v>
+      </c>
+      <c r="B18" s="15" t="s">
+        <v>256</v>
+      </c>
+      <c r="F18" s="26" t="s">
+        <v>54</v>
+      </c>
+      <c r="G18" s="15" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="A19" s="26" t="s">
+        <v>42</v>
+      </c>
+      <c r="B19" s="15" t="s">
+        <v>305</v>
+      </c>
+      <c r="F19" s="26" t="s">
+        <v>57</v>
+      </c>
+      <c r="G19" s="15" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" ht="105" x14ac:dyDescent="0.25">
+      <c r="A22" s="26" t="s">
+        <v>45</v>
+      </c>
+      <c r="B22" s="15" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" ht="135" x14ac:dyDescent="0.25">
+      <c r="A23" s="26" t="s">
+        <v>48</v>
+      </c>
+      <c r="B23" s="15" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" ht="150" x14ac:dyDescent="0.25">
+      <c r="A24" s="26" t="s">
+        <v>51</v>
+      </c>
+      <c r="B24" s="15" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" ht="90" x14ac:dyDescent="0.25">
+      <c r="A26" s="26" t="s">
+        <v>54</v>
+      </c>
+      <c r="B26" s="15" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" ht="75" x14ac:dyDescent="0.25">
+      <c r="A28" s="26" t="s">
+        <v>57</v>
+      </c>
+      <c r="B28" s="15" t="s">
+        <v>301</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AB24"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="V1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="Z4" sqref="Z4"/>
+    <sheetView tabSelected="1" topLeftCell="T1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="AB3" sqref="AB3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="19.85546875" defaultRowHeight="59.25" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="19.85546875" style="28"/>
-    <col min="2" max="6" width="19.85546875" style="26"/>
+    <col min="2" max="4" width="19.85546875" style="26"/>
+    <col min="5" max="5" width="19.85546875" style="26" customWidth="1"/>
+    <col min="6" max="6" width="19.85546875" style="26"/>
     <col min="7" max="7" width="19.85546875" style="30"/>
-    <col min="8" max="16384" width="19.85546875" style="26"/>
+    <col min="8" max="27" width="19.85546875" style="26"/>
+    <col min="28" max="28" width="19.85546875" style="52"/>
+    <col min="29" max="16384" width="19.85546875" style="26"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:28" s="43" customFormat="1" ht="59.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -2480,7 +2820,7 @@
       <c r="AA1" s="43" t="s">
         <v>269</v>
       </c>
-      <c r="AB1" s="43" t="s">
+      <c r="AB1" s="52" t="s">
         <v>269</v>
       </c>
     </row>
@@ -2566,7 +2906,7 @@
       <c r="AA2" s="27" t="s">
         <v>270</v>
       </c>
-      <c r="AB2" s="27" t="s">
+      <c r="AB2" s="66" t="s">
         <v>271</v>
       </c>
     </row>
@@ -2639,6 +2979,9 @@
       <c r="X3" s="25"/>
       <c r="Y3" s="25"/>
       <c r="Z3" s="25"/>
+      <c r="AB3" s="52" t="s">
+        <v>300</v>
+      </c>
     </row>
     <row r="4" spans="1:28" ht="59.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="28">
@@ -2701,6 +3044,9 @@
       <c r="X4" s="25"/>
       <c r="Y4" s="25"/>
       <c r="Z4" s="25"/>
+      <c r="AB4" s="52" t="s">
+        <v>301</v>
+      </c>
     </row>
     <row r="5" spans="1:28" ht="59.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="28">
@@ -2736,6 +3082,9 @@
       <c r="X5" s="25"/>
       <c r="Y5" s="25"/>
       <c r="Z5" s="25"/>
+      <c r="AB5" s="52" t="s">
+        <v>302</v>
+      </c>
     </row>
     <row r="6" spans="1:28" ht="59.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="28">
@@ -2777,6 +3126,9 @@
       <c r="X6" s="25"/>
       <c r="Y6" s="25"/>
       <c r="Z6" s="25"/>
+      <c r="AB6" s="52" t="s">
+        <v>303</v>
+      </c>
     </row>
     <row r="7" spans="1:28" ht="59.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="28">
@@ -2847,6 +3199,9 @@
       <c r="X7" s="25"/>
       <c r="Y7" s="25"/>
       <c r="Z7" s="25"/>
+      <c r="AB7" s="52" t="s">
+        <v>244</v>
+      </c>
     </row>
     <row r="8" spans="1:28" ht="59.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="28">
@@ -2913,6 +3268,9 @@
       <c r="X8" s="25"/>
       <c r="Y8" s="25"/>
       <c r="Z8" s="25"/>
+      <c r="AB8" s="52" t="s">
+        <v>304</v>
+      </c>
     </row>
     <row r="9" spans="1:28" ht="59.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="28">
@@ -2969,6 +3327,9 @@
       <c r="X9" s="25"/>
       <c r="Y9" s="25"/>
       <c r="Z9" s="25"/>
+      <c r="AB9" s="52" t="s">
+        <v>305</v>
+      </c>
     </row>
     <row r="10" spans="1:28" ht="59.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="28">
@@ -3026,6 +3387,9 @@
       <c r="X10" s="25"/>
       <c r="Y10" s="25"/>
       <c r="Z10" s="25"/>
+      <c r="AB10" s="52" t="s">
+        <v>306</v>
+      </c>
     </row>
     <row r="11" spans="1:28" ht="59.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="28">
@@ -3079,6 +3443,9 @@
       <c r="X11" s="25"/>
       <c r="Y11" s="25"/>
       <c r="Z11" s="25"/>
+      <c r="AB11" s="52" t="s">
+        <v>307</v>
+      </c>
     </row>
     <row r="12" spans="1:28" ht="59.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="28">
@@ -3143,6 +3510,9 @@
       <c r="X12" s="25"/>
       <c r="Y12" s="25"/>
       <c r="Z12" s="25"/>
+      <c r="AB12" s="52" t="s">
+        <v>308</v>
+      </c>
     </row>
     <row r="13" spans="1:28" ht="59.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="28">
@@ -3208,6 +3578,9 @@
       <c r="X13" s="25"/>
       <c r="Y13" s="25"/>
       <c r="Z13" s="25"/>
+      <c r="AB13" s="52" t="s">
+        <v>256</v>
+      </c>
     </row>
     <row r="14" spans="1:28" ht="59.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="28">
@@ -3275,6 +3648,9 @@
       <c r="X14" s="25"/>
       <c r="Y14" s="25"/>
       <c r="Z14" s="25"/>
+      <c r="AB14" s="52" t="s">
+        <v>305</v>
+      </c>
     </row>
     <row r="15" spans="1:28" ht="59.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="28">
@@ -3342,6 +3718,9 @@
       <c r="X15" s="25"/>
       <c r="Y15" s="25"/>
       <c r="Z15" s="25"/>
+      <c r="AB15" s="52" t="s">
+        <v>309</v>
+      </c>
     </row>
     <row r="16" spans="1:28" ht="59.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="28">
@@ -3397,8 +3776,11 @@
       <c r="X16" s="25"/>
       <c r="Y16" s="25"/>
       <c r="Z16" s="25"/>
-    </row>
-    <row r="17" spans="1:26" ht="59.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AB16" s="52" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="17" spans="1:28" ht="59.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="28">
         <v>15</v>
       </c>
@@ -3451,8 +3833,11 @@
       <c r="X17" s="25"/>
       <c r="Y17" s="25"/>
       <c r="Z17" s="25"/>
-    </row>
-    <row r="18" spans="1:26" ht="59.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AB17" s="52" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="18" spans="1:28" ht="59.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="28">
         <v>16</v>
       </c>
@@ -3515,8 +3900,11 @@
       <c r="X18" s="25"/>
       <c r="Y18" s="25"/>
       <c r="Z18" s="25"/>
-    </row>
-    <row r="19" spans="1:26" ht="59.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AB18" s="52" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="19" spans="1:28" ht="59.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="28">
         <v>17</v>
       </c>
@@ -3532,28 +3920,31 @@
       <c r="K19"/>
       <c r="L19" s="25"/>
       <c r="M19" s="25"/>
-    </row>
-    <row r="20" spans="1:26" ht="59.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AB19" s="52" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="20" spans="1:28" ht="59.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="J20" s="25" t="s">
         <v>296</v>
       </c>
       <c r="K20"/>
     </row>
-    <row r="21" spans="1:26" ht="59.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:28" ht="59.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="J21"/>
       <c r="K21"/>
     </row>
-    <row r="22" spans="1:26" ht="59.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:28" ht="59.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="J22"/>
       <c r="K22"/>
     </row>
-    <row r="23" spans="1:26" ht="59.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:28" ht="59.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="J23" s="25" t="s">
         <v>297</v>
       </c>
       <c r="K23"/>
     </row>
-    <row r="24" spans="1:26" ht="59.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:28" ht="59.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="J24"/>
       <c r="K24" t="s">
         <v>298</v>
@@ -6476,7 +6867,7 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0F6A1EF9-FDA3-4CFD-AEE9-69D97002D157}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4B8D7286-F4FE-4A06-BF71-FA938E0A4D71}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/PowerBIAddIn"/>
   </ds:schemaRefs>
